--- a/biology/Microbiologie/Abditibacteriota/Abditibacteriota.xlsx
+++ b/biology/Microbiologie/Abditibacteriota/Abditibacteriota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les "Abditibacteriota" sont un phylum (ou embranchement, ou encore division) du règne des Bacteria. Son nom provient de Abditibacteria qui est sa classe type sous sa première écriture.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce phylum est proposé en 2018 par Guillaume Tahon pour contenir le premier membre cultivé, la bactérie Abditibacterium utsteinense, du phylum candidat FBP[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce phylum est proposé en 2018 par Guillaume Tahon pour contenir le premier membre cultivé, la bactérie Abditibacterium utsteinense, du phylum candidat FBP.
 </t>
         </is>
       </c>
@@ -542,13 +556,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Proposé en 2018, le nom de ce phylum est considéré comme publié de manière non valide d'où les guillemets autour de son nom. Au regard du code de nomenclature bactérienne (le nom du phylum devant être dérivé de celui de son genre type, en l'occurrence Abditibacterium, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[2]), son nom est considéré comme le nom préféré et non pas le nom correct.
-Étymologie
-L'étymologie du nom actuel de ce phylum est la suivante : selon la LPSN Ab.di.ti.bac.te.ri.o’ta. N.L. neut. pl. n. Abditibacteria, classe type de ce phylum; N.L. neut. pl. n. Abditibacteriota, le phylum de la classe Abditibacteria[3]. Selon la publication originale, l'étymologie provient du nom de son ordre type Abditibacteriales : Ab.di.ti.bac.te.ri.o’ta. N. L. fem. pl. n. Abditibacteriales, ordre type du phylum; N. L. neut. pl. n. Abditibacteriota, le phylum de l'ordre Abditibacteriales[4].
-Liste des classes
-Selon la base de nomenclature LPSN  (01/08/2023)[5], ce phylum ne contient qu'une seule classe, publiée de manière valide:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proposé en 2018, le nom de ce phylum est considéré comme publié de manière non valide d'où les guillemets autour de son nom. Au regard du code de nomenclature bactérienne (le nom du phylum devant être dérivé de celui de son genre type, en l'occurrence Abditibacterium, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021), son nom est considéré comme le nom préféré et non pas le nom correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abditibacteriota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abditibacteriota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom actuel de ce phylum est la suivante : selon la LPSN Ab.di.ti.bac.te.ri.o’ta. N.L. neut. pl. n. Abditibacteria, classe type de ce phylum; N.L. neut. pl. n. Abditibacteriota, le phylum de la classe Abditibacteria. Selon la publication originale, l'étymologie provient du nom de son ordre type Abditibacteriales : Ab.di.ti.bac.te.ri.o’ta. N. L. fem. pl. n. Abditibacteriales, ordre type du phylum; N. L. neut. pl. n. Abditibacteriota, le phylum de l'ordre Abditibacteriales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abditibacteriota</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abditibacteriota</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base de nomenclature LPSN  (01/08/2023), ce phylum ne contient qu'une seule classe, publiée de manière valide:
 Abditibacteriia Tahon et al. 2018 (nom corrigé)</t>
         </is>
       </c>
